--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sci-mukae\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91301BA3-CCA2-4D94-9E52-5022EC3562FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BF42E-81E8-4F32-A38D-0CF192DA1F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="435" windowWidth="28785" windowHeight="11295" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="3510" yWindow="2130" windowWidth="24315" windowHeight="14070" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,73 +1011,73 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,9 +1206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1246,7 +1246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1352,7 +1352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1494,7 +1494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1508,9 +1508,11 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
@@ -1526,12 +1528,12 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="19.5" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="38.25" thickBot="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1566,30 +1568,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85">
+    <row r="3" spans="2:13" ht="27" customHeight="1" thickTop="1">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83">
         <f t="shared" ref="J3" si="0">F3+G3+H3+I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="84">
         <f t="shared" ref="K3" si="1">IF(B3="○",IF(E3="",0,J3),D3+J3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="87" t="str">
+      <c r="L3" s="85" t="str">
         <f t="shared" ref="L3" si="2">IF(B3="○",D3+J3-K3,"--")</f>
         <v>--</v>
       </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="2:13" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="21"/>
       <c r="D4" s="13"/>
@@ -1597,7 +1599,7 @@
       <c r="F4" s="25"/>
       <c r="G4" s="23"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="76"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="17">
         <f t="shared" ref="J4:J5" si="3">F4+G4+H4+I4</f>
         <v>0</v>
@@ -1612,32 +1614,32 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="2:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+    <row r="5" spans="2:13" ht="27" customHeight="1" thickBot="1">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="68">
         <f>IF(B5="○",IF(E5="",0,J5),D5+J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="L5" s="73" t="str">
         <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="2:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="11.25" customHeight="1" thickBot="1">
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -1647,7 +1649,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
@@ -1688,26 +1690,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="19.5" thickBot="1">
       <c r="G8" s="40"/>
-      <c r="H8" s="65">
+      <c r="H8" s="86">
         <f>SUM(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="66"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="13.5" customHeight="1">
       <c r="G10" s="41"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13">
       <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13">
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1735,7 +1737,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13">
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -1743,7 +1745,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13">
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -1751,7 +1753,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8">
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -1759,7 +1761,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8">
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -1767,7 +1769,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -1775,7 +1777,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -1783,7 +1785,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:8">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1791,7 +1793,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1799,7 +1801,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8">
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -1807,7 +1809,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8">
       <c r="C24" s="21"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -1815,7 +1817,7 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8">
       <c r="C25" s="21"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -1823,7 +1825,7 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8">
       <c r="C26" s="21"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -1831,7 +1833,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8">
       <c r="C27" s="21"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -1839,7 +1841,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8">
       <c r="C28" s="21"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -1847,7 +1849,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8">
       <c r="C29" s="21"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -1855,7 +1857,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8">
       <c r="C30" s="44" t="s">
         <v>21</v>
       </c>
@@ -1871,13 +1873,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:8">
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:8">
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1888,7 @@
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="3" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="42" t="s">
@@ -1907,7 +1909,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14">
       <c r="C34" s="12"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -1915,7 +1917,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14">
       <c r="C35" s="12"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1923,7 +1925,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14">
       <c r="C36" s="12"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1931,7 +1933,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14">
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1939,7 +1941,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14">
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1947,7 +1949,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14">
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1955,7 +1957,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14">
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1963,7 +1965,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14">
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -1971,7 +1973,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="3" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="44" t="s">
@@ -1991,7 +1993,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="3" customFormat="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2006,7 +2008,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="3" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
@@ -2023,7 +2025,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="3" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="42" t="s">
@@ -2048,7 +2050,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14">
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2058,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14">
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14">
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2078,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14">
       <c r="C49" s="12"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -2088,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14">
       <c r="C50" s="12"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -2098,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14">
       <c r="C51" s="12"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -2108,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="3" customFormat="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
@@ -2129,7 +2131,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="3" customFormat="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2144,7 +2146,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="3" customFormat="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
@@ -2162,7 +2164,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="3" customFormat="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="42" t="s">
@@ -2188,7 +2190,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="3" customFormat="1">
       <c r="A56" s="2"/>
       <c r="B56" s="52" t="s">
         <v>27</v>
@@ -2209,7 +2211,7 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="3" customFormat="1">
       <c r="A57" s="2"/>
       <c r="B57" s="52" t="s">
         <v>27</v>
@@ -2230,7 +2232,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="3" customFormat="1">
       <c r="A58" s="2"/>
       <c r="B58" s="52" t="s">
         <v>27</v>
@@ -2251,7 +2253,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="3" customFormat="1">
       <c r="A59" s="2"/>
       <c r="B59" s="52" t="s">
         <v>27</v>
@@ -2272,7 +2274,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="3" customFormat="1">
       <c r="A60" s="2"/>
       <c r="B60" s="52" t="s">
         <v>27</v>
@@ -2293,7 +2295,7 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="3" customFormat="1">
       <c r="A61" s="2"/>
       <c r="B61" s="52" t="s">
         <v>27</v>
@@ -2314,7 +2316,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="3" customFormat="1">
       <c r="A62" s="2"/>
       <c r="B62" s="52" t="s">
         <v>27</v>
@@ -2335,7 +2337,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="3" customFormat="1">
       <c r="A63" s="2"/>
       <c r="B63" s="52" t="s">
         <v>27</v>
@@ -2356,7 +2358,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="3" customFormat="1">
       <c r="A64" s="2"/>
       <c r="B64" s="52" t="s">
         <v>27</v>
@@ -2377,7 +2379,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="3" customFormat="1">
       <c r="A65" s="2"/>
       <c r="B65" s="52" t="s">
         <v>27</v>
@@ -2398,7 +2400,7 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="3" customFormat="1">
       <c r="A66" s="2"/>
       <c r="B66" s="52" t="s">
         <v>27</v>
@@ -2419,7 +2421,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="3" customFormat="1">
       <c r="A67" s="2"/>
       <c r="B67" s="52" t="s">
         <v>27</v>
@@ -2440,7 +2442,7 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="3" customFormat="1">
       <c r="A68" s="2"/>
       <c r="B68" s="52" t="s">
         <v>27</v>
@@ -2461,7 +2463,7 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="3" customFormat="1">
       <c r="A69" s="2"/>
       <c r="B69" s="52" t="s">
         <v>27</v>
@@ -2482,7 +2484,7 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="3" customFormat="1">
       <c r="A70" s="2"/>
       <c r="B70" s="52" t="s">
         <v>27</v>
@@ -2503,7 +2505,7 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="3" customFormat="1">
       <c r="A71" s="2"/>
       <c r="B71" s="53" t="s">
         <v>28</v>
@@ -2524,7 +2526,7 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="3" customFormat="1">
       <c r="A72" s="2"/>
       <c r="B72" s="53" t="s">
         <v>28</v>
@@ -2545,7 +2547,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="3" customFormat="1">
       <c r="A73" s="2"/>
       <c r="B73" s="53" t="s">
         <v>28</v>
@@ -2566,7 +2568,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="3" customFormat="1">
       <c r="A74" s="2"/>
       <c r="B74" s="53" t="s">
         <v>28</v>
@@ -2587,7 +2589,7 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="3" customFormat="1">
       <c r="A75" s="2"/>
       <c r="B75" s="53" t="s">
         <v>28</v>
@@ -2608,7 +2610,7 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="3" customFormat="1">
       <c r="A76" s="2"/>
       <c r="B76" s="53" t="s">
         <v>28</v>
@@ -2629,7 +2631,7 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="3" customFormat="1">
       <c r="A77" s="2"/>
       <c r="B77" s="53" t="s">
         <v>28</v>
@@ -2650,7 +2652,7 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="3" customFormat="1">
       <c r="A78" s="2"/>
       <c r="B78" s="53" t="s">
         <v>28</v>
@@ -2671,7 +2673,7 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="3" customFormat="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="44" t="s">
@@ -2701,7 +2703,7 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="3" customFormat="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2717,7 +2719,7 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="3" customFormat="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
@@ -2735,7 +2737,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="3" customFormat="1" ht="37.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="54" t="s">
@@ -2758,7 +2760,7 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="3" customFormat="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="58"/>
@@ -2776,7 +2778,7 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="3" customFormat="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="58"/>
@@ -2793,7 +2795,7 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="3" customFormat="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="58"/>
@@ -2810,7 +2812,7 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="51" customFormat="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="58"/>
@@ -2826,7 +2828,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="3" customFormat="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="58"/>
@@ -2843,7 +2845,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="3" customFormat="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="58"/>
@@ -2860,7 +2862,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" s="51" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="51" customFormat="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="58"/>
@@ -2876,7 +2878,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="3" customFormat="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="58"/>
@@ -2893,7 +2895,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" ht="13.5" customHeight="1">
       <c r="C91" s="44" t="s">
         <v>21</v>
       </c>
@@ -2906,33 +2908,33 @@
       <c r="G91" s="41"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" ht="14.25" customHeight="1">
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14">
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14">
       <c r="G94" s="41"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14">
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14">
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14">
       <c r="G97" s="41"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14">
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14">
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="3" customFormat="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2948,7 +2950,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="3" customFormat="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2964,7 +2966,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="3" customFormat="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2980,7 +2982,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="3" customFormat="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2996,7 +2998,7 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="3" customFormat="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3012,7 +3014,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="3" customFormat="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3028,7 +3030,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="3" customFormat="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3044,7 +3046,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="3" customFormat="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3060,7 +3062,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="3" customFormat="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3076,7 +3078,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="3" customFormat="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3092,7 +3094,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="3" customFormat="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3108,7 +3110,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="3" customFormat="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3124,7 +3126,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="3" customFormat="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3140,7 +3142,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="3" customFormat="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3155,7 +3157,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" s="3" customFormat="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3171,7 +3173,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" s="3" customFormat="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3187,7 +3189,7 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="3" customFormat="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3203,7 +3205,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" s="3" customFormat="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3219,7 +3221,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="3" customFormat="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3235,7 +3237,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="3" customFormat="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3251,7 +3253,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="3" customFormat="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3267,7 +3269,7 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" s="3" customFormat="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3283,7 +3285,7 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="3" customFormat="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3299,7 +3301,7 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" s="3" customFormat="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3315,11 +3317,11 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14">
       <c r="G124" s="47"/>
       <c r="L124" s="41"/>
     </row>
-    <row r="125" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" s="3" customFormat="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3334,7 +3336,7 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" s="3" customFormat="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3349,7 +3351,7 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="128" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3363,7 +3365,7 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" s="3" customFormat="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3378,7 +3380,7 @@
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" s="3" customFormat="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3393,7 +3395,7 @@
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" s="3" customFormat="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3408,7 +3410,7 @@
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" s="3" customFormat="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3423,7 +3425,7 @@
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" s="3" customFormat="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3438,7 +3440,7 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" s="3" customFormat="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3453,7 +3455,7 @@
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" s="3" customFormat="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3468,7 +3470,7 @@
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" s="3" customFormat="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3483,7 +3485,7 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" s="3" customFormat="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3498,7 +3500,7 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" s="3" customFormat="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3513,7 +3515,7 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" s="3" customFormat="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3528,7 +3530,7 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" s="3" customFormat="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sci-mukae\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BF42E-81E8-4F32-A38D-0CF192DA1F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEA4F5-7E8D-4E86-ADAE-296FB16E9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2130" windowWidth="24315" windowHeight="14070" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="3120" yWindow="2130" windowWidth="24315" windowHeight="14070" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -1508,8 +1508,8 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2737,7 +2737,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="37.5">
+    <row r="82" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="54" t="s">

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sci-mukae\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEA4F5-7E8D-4E86-ADAE-296FB16E9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5F296-9C56-4ACC-8501-F50003F58B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2130" windowWidth="24315" windowHeight="14070" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -1508,9 +1508,7 @@
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sci-mukae\SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5F296-9C56-4ACC-8501-F50003F58B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE06F9-BBAD-432C-96D8-3D48F05A5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="fg" sheetId="3" r:id="rId1"/>
+    <sheet name="wip" sheetId="2" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fg!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wip!$A$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>2024年09月　仕掛 原価一覧</t>
     <rPh sb="4" eb="5">
@@ -291,18 +297,105 @@
       <t>ゼイヌ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>原価部門コード</t>
+  </si>
+  <si>
+    <t>原価部門名</t>
+  </si>
+  <si>
+    <t>受注明細+受注行番号+部門コード</t>
+  </si>
+  <si>
+    <t>得意先名</t>
+  </si>
+  <si>
+    <t>材料費</t>
+  </si>
+  <si>
+    <t>原価計</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>粗利</t>
+    <rPh sb="0" eb="2">
+      <t>アラリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>粗利率</t>
+    <rPh sb="0" eb="2">
+      <t>アラリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>総計</t>
+  </si>
+  <si>
+    <t>原価部門コード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>総計</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>原価計</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成PJ台帳</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕掛PJ台帳</t>
+    <rPh sb="0" eb="2">
+      <t>シカカリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +468,12 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -792,7 +891,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,8 +913,36 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1201,39 @@
     <xf numFmtId="38" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="6" fillId="7" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="9" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="6" fillId="9" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="6" fillId="7" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="7" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="6" fillId="9" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,16 +1241,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="桁区切り 2" xfId="6" xr:uid="{3237B73E-2902-4CE6-8C02-7ED17E5A6F9A}"/>
+    <cellStyle name="桁区切り 2 2" xfId="11" xr:uid="{9FC4B8CE-BB9F-4ABA-A956-8CEEEF1AFCFC}"/>
     <cellStyle name="桁区切り 3" xfId="3" xr:uid="{5DAC2301-FDC7-4C4C-AF9F-0D8F27ECDB33}"/>
+    <cellStyle name="桁区切り 3 2" xfId="9" xr:uid="{F8F0830A-8E74-4C03-9612-BEF38F686680}"/>
     <cellStyle name="桁区切り 4" xfId="4" xr:uid="{845CF8E1-DA50-477F-BE18-BA17A93FF045}"/>
+    <cellStyle name="桁区切り 4 2" xfId="10" xr:uid="{59A211BB-A455-411F-9820-B6EE62E4B8D3}"/>
+    <cellStyle name="桁区切り 5" xfId="12" xr:uid="{2A4D14C3-E773-4D36-B720-87165F249881}"/>
+    <cellStyle name="桁区切り 6" xfId="14" xr:uid="{79456689-67C9-4ACB-83B2-6D14B372660A}"/>
+    <cellStyle name="桁区切り 7" xfId="16" xr:uid="{0F55FF0A-55C3-4DAA-B403-469FEFC6A4BF}"/>
+    <cellStyle name="桁区切り 8" xfId="7" xr:uid="{903B9E25-F6BD-47F7-8106-8FD576F47A26}"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
+    <cellStyle name="通貨 2" xfId="8" xr:uid="{DE263F7F-E893-4240-9C90-8AD26D754F0D}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5" xr:uid="{3F3035DC-1BCC-4C2E-B9B6-A785C8CAF9FC}"/>
+    <cellStyle name="標準 3" xfId="13" xr:uid="{FBD4C373-5A16-44A0-B871-A8DA528BBC87}"/>
+    <cellStyle name="標準 4" xfId="15" xr:uid="{90132796-2803-48DE-B0F8-E8FBB846CDFD}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1113,21 +1283,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="#,##0_ "/>
+      <numFmt numFmtId="179" formatCode="#,##0_ "/>
     </dxf>
     <dxf>
       <fill>
@@ -1501,14 +1657,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="96"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="96"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="96"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="98"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:M2" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J2" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218EF7C2-93E1-4FDC-AABC-687AEEE00D08}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -1690,11 +2114,11 @@
     </row>
     <row r="8" spans="2:13" ht="19.5" thickBot="1">
       <c r="G8" s="40"/>
-      <c r="H8" s="86">
+      <c r="H8" s="107">
         <f>SUM(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="2:13">
       <c r="G9" s="40"/>
@@ -3549,70 +3973,62 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>$F5="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$F7="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G4 I3:I4">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G4">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$F3="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G5">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$E3="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H7">
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>$E7="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>$F6="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="6" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="notEqual">
       <formula>"""--"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="4" priority="28">
-      <formula>#REF!="振分なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M12:M32">
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M41">
-    <cfRule type="expression" dxfId="2" priority="29">
-      <formula>#REF!="振分なし"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE06F9-BBAD-432C-96D8-3D48F05A5D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB1A3A-DCC2-4938-A1B1-31975F4B1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="fg" sheetId="3" r:id="rId1"/>
@@ -942,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,10 +1229,8 @@
     <xf numFmtId="38" fontId="10" fillId="7" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="6" fillId="9" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1658,9 +1656,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1781,21 +1779,216 @@
       <c r="M5" s="96"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="96"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="96"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="96"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="96"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="96"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="96"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="96"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="96"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="96"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="96"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="96"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="96"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="96"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="98"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}"/>
@@ -1806,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +2018,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="99"/>
@@ -1867,54 +2060,114 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="90"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J2" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}"/>
@@ -1928,11 +2181,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -2114,11 +2365,11 @@
     </row>
     <row r="8" spans="2:13" ht="19.5" thickBot="1">
       <c r="G8" s="40"/>
-      <c r="H8" s="107">
+      <c r="H8" s="105">
         <f>SUM(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="108"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="2:13">
       <c r="G9" s="40"/>
@@ -2488,7 +2739,7 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="H47" s="64">
-        <f>SUM(D47:G47)</f>
+        <f t="shared" ref="H47:H50" si="7">SUM(D47:G47)</f>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2749,7 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="H48" s="64">
-        <f t="shared" ref="H48:H50" si="7">SUM(D48:G48)</f>
+        <f>SUM(D48:G48)</f>
         <v>0</v>
       </c>
     </row>
@@ -2507,7 +2758,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="H49" s="50">
+      <c r="H49" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2517,7 +2768,7 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="H50" s="50">
+      <c r="H50" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2527,103 +2778,63 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="H51" s="50">
+      <c r="H51" s="64">
         <f>SUM(D51:G51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="3" customFormat="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="49">
-        <f>SUM(H46:H51)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" s="3" customFormat="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="47"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" s="3" customFormat="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" s="3" customFormat="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+    <row r="52" spans="1:14">
+      <c r="C52" s="12"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="H52" s="64">
+        <f t="shared" ref="H52:H54" si="8">SUM(D52:G52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="C53" s="12"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="H53" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="C54" s="12"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="H54" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="C55" s="12"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="H55" s="50">
+        <f>SUM(D55:G55)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="50">
-        <f t="shared" ref="H56:H78" si="8">SUM(D56:G56)</f>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="49">
+        <f ca="1">SUM(H46:H4755)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
@@ -2635,18 +2846,12 @@
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="47"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -2656,18 +2861,15 @@
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2677,17 +2879,22 @@
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="H59" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2705,9 +2912,9 @@
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="51"/>
       <c r="H60" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H60:H82" si="9">SUM(D60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
@@ -2726,9 +2933,9 @@
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="51"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
@@ -2747,9 +2954,9 @@
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="50">
-        <f t="shared" si="8"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="64">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
@@ -2768,9 +2975,9 @@
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="51"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
@@ -2789,9 +2996,9 @@
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="51"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -2812,7 +3019,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="51"/>
       <c r="H65" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
@@ -2833,7 +3040,7 @@
       <c r="F66" s="22"/>
       <c r="G66" s="51"/>
       <c r="H66" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
@@ -2854,7 +3061,7 @@
       <c r="F67" s="22"/>
       <c r="G67" s="51"/>
       <c r="H67" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
@@ -2869,13 +3076,13 @@
       <c r="B68" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="51"/>
       <c r="H68" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
@@ -2890,13 +3097,13 @@
       <c r="B69" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="51"/>
       <c r="H69" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
@@ -2911,13 +3118,13 @@
       <c r="B70" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="51"/>
       <c r="H70" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
@@ -2929,16 +3136,16 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="B71" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="51"/>
       <c r="H71" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
@@ -2950,8 +3157,8 @@
     </row>
     <row r="72" spans="1:14" s="3" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="53" t="s">
-        <v>28</v>
+      <c r="B72" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="15"/>
@@ -2959,7 +3166,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="51"/>
       <c r="H72" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
@@ -2971,8 +3178,8 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="53" t="s">
-        <v>28</v>
+      <c r="B73" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="15"/>
@@ -2980,7 +3187,7 @@
       <c r="F73" s="15"/>
       <c r="G73" s="51"/>
       <c r="H73" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
@@ -2992,8 +3199,8 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="53" t="s">
-        <v>28</v>
+      <c r="B74" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="15"/>
@@ -3001,7 +3208,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="51"/>
       <c r="H74" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I74" s="2"/>
@@ -3022,7 +3229,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="51"/>
       <c r="H75" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I75" s="2"/>
@@ -3043,7 +3250,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="51"/>
       <c r="H76" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I76" s="2"/>
@@ -3064,7 +3271,7 @@
       <c r="F77" s="15"/>
       <c r="G77" s="51"/>
       <c r="H77" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I77" s="2"/>
@@ -3085,7 +3292,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="51"/>
       <c r="H78" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78" s="2"/>
@@ -3097,25 +3304,16 @@
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="46">
-        <f>SUM(D56:D76)</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="46">
-        <f>SUM(E56:E76)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="46">
-        <f>SUM(F56:F76)</f>
-        <v>0</v>
-      </c>
+      <c r="B79" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
       <c r="G79" s="51"/>
-      <c r="H79" s="46">
-        <f>SUM(H56:H76)</f>
+      <c r="H79" s="50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I79" s="2"/>
@@ -3127,13 +3325,18 @@
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
+      <c r="B80" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="51"/>
-      <c r="H80" s="40"/>
+      <c r="H80" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3143,15 +3346,18 @@
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="B81" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3159,22 +3365,20 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="82" spans="1:14" s="3" customFormat="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="2"/>
+      <c r="B82" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -3185,14 +3389,26 @@
     <row r="83" spans="1:14" s="3" customFormat="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="61">
-        <f>E83/1.1</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="51"/>
+      <c r="C83" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="46">
+        <f>SUM(D60:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="46">
+        <f>SUM(E60:E80)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="46">
+        <f>SUM(F60:F80)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="51"/>
+      <c r="H83" s="46">
+        <f>SUM(H60:H80)</f>
+        <v>0</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -3203,13 +3419,12 @@
     <row r="84" spans="1:14" s="3" customFormat="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="61">
-        <v>0</v>
-      </c>
-      <c r="H84" s="51"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3220,12 +3435,13 @@
     <row r="85" spans="1:14" s="3" customFormat="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="61">
-        <v>0</v>
-      </c>
+      <c r="C85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -3234,15 +3450,22 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" s="51" customFormat="1">
+    <row r="86" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="61">
-        <v>0</v>
-      </c>
+      <c r="C86" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -3257,6 +3480,7 @@
       <c r="D87" s="59"/>
       <c r="E87" s="60"/>
       <c r="F87" s="61">
+        <f>E87/1.1</f>
         <v>0</v>
       </c>
       <c r="H87" s="51"/>
@@ -3276,7 +3500,7 @@
       <c r="F88" s="61">
         <v>0</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="51"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3284,7 +3508,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" s="51" customFormat="1">
+    <row r="89" spans="1:14" s="3" customFormat="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="58"/>
@@ -3293,6 +3517,7 @@
       <c r="F89" s="61">
         <v>0</v>
       </c>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -3300,14 +3525,13 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" s="3" customFormat="1">
+    <row r="90" spans="1:14" s="51" customFormat="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="58"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="62"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="61">
-        <f t="shared" ref="F90" si="9">E90/1.1</f>
         <v>0</v>
       </c>
       <c r="I90" s="2"/>
@@ -3317,108 +3541,111 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="13.5" customHeight="1">
-      <c r="C91" s="44" t="s">
+    <row r="91" spans="1:14" s="3" customFormat="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="61">
+        <v>0</v>
+      </c>
+      <c r="H91" s="51"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" s="3" customFormat="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="61">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" s="51" customFormat="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="61">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" s="3" customFormat="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="61">
+        <f t="shared" ref="F94" si="10">E94/1.1</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" ht="13.5" customHeight="1">
+      <c r="C95" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="46">
-        <f>SUM(F83:F90)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" ht="14.25" customHeight="1">
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="G94" s="41"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="46">
+        <f>SUM(F87:F94)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="41"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" ht="14.25" customHeight="1">
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="G97" s="41"/>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:14">
+      <c r="G98" s="41"/>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:14">
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:14" s="3" customFormat="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="51"/>
+    <row r="100" spans="1:14">
       <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="1:14" s="3" customFormat="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="51"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="G101" s="41"/>
       <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="1:14" s="3" customFormat="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="51"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-    </row>
-    <row r="103" spans="1:14" s="3" customFormat="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="63"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" s="3" customFormat="1">
       <c r="A104" s="2"/>
@@ -3427,7 +3654,7 @@
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="63"/>
+      <c r="G104" s="51"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -3443,7 +3670,7 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="63"/>
+      <c r="G105" s="51"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -3459,7 +3686,7 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="63"/>
+      <c r="G106" s="51"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -3475,7 +3702,7 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="41"/>
+      <c r="G107" s="63"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -3523,7 +3750,7 @@
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -3555,7 +3782,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="41"/>
+      <c r="G112" s="63"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -3571,6 +3798,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
+      <c r="G113" s="63"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -3602,7 +3830,7 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="G115" s="41"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -3618,7 +3846,7 @@
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -3634,7 +3862,6 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -3682,8 +3909,8 @@
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="63"/>
-      <c r="H120" s="51"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -3698,8 +3925,8 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="63"/>
-      <c r="H121" s="51"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -3714,8 +3941,8 @@
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="51"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -3730,8 +3957,8 @@
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="63"/>
-      <c r="H123" s="51"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -3739,9 +3966,21 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14">
-      <c r="G124" s="47"/>
-      <c r="L124" s="41"/>
+    <row r="124" spans="1:14" s="3" customFormat="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" s="3" customFormat="1">
       <c r="A125" s="2"/>
@@ -3750,11 +3989,12 @@
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="51"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="41"/>
+      <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
@@ -3765,27 +4005,34 @@
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="51"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="41"/>
+      <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="128" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+    <row r="127" spans="1:14" s="3" customFormat="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="G128" s="47"/>
+      <c r="L128" s="41"/>
     </row>
     <row r="129" spans="1:14" s="3" customFormat="1">
       <c r="A129" s="2"/>
@@ -3798,7 +4045,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="L129" s="41"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
@@ -3813,33 +4060,17 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="L130" s="41"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" s="3" customFormat="1">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-    </row>
-    <row r="132" spans="1:14" s="3" customFormat="1">
+    <row r="132" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -3956,7 +4187,7 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="40"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -3966,6 +4197,66 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="1:14" s="3" customFormat="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="1:14" s="3" customFormat="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="1:14" s="3" customFormat="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="1:14" s="3" customFormat="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4032,7 +4323,7 @@
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M46:M51">
+  <conditionalFormatting sqref="M46:M55">
     <cfRule type="expression" dxfId="0" priority="12">
       <formula>#REF!="振分なし"</formula>
     </cfRule>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB1A3A-DCC2-4938-A1B1-31975F4B1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E99221-BA7D-4EFA-ADD9-7AF217078F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="fg" sheetId="3" r:id="rId1"/>
-    <sheet name="wip" sheetId="2" r:id="rId2"/>
+    <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
+    <sheet name="仕掛PJ台帳" sheetId="2" r:id="rId2"/>
     <sheet name="template" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fg!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wip!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">完成PJ台帳!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">仕掛PJ台帳!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2834,7 +2834,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="49">
-        <f ca="1">SUM(H46:H4755)</f>
+        <f>SUM(H46:H55)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\90.SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E99221-BA7D-4EFA-ADD9-7AF217078F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B73F649-E795-453E-93A4-6B629855FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
@@ -1658,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2183,7 +2183,7 @@
   </sheetPr>
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -3480,7 +3480,6 @@
       <c r="D87" s="59"/>
       <c r="E87" s="60"/>
       <c r="F87" s="61">
-        <f>E87/1.1</f>
         <v>0</v>
       </c>
       <c r="H87" s="51"/>
@@ -3598,7 +3597,6 @@
       <c r="D94" s="59"/>
       <c r="E94" s="62"/>
       <c r="F94" s="61">
-        <f t="shared" ref="F94" si="10">E94/1.1</f>
         <v>0</v>
       </c>
       <c r="I94" s="2"/>
@@ -3615,7 +3613,6 @@
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
       <c r="F95" s="46">
-        <f>SUM(F87:F94)</f>
         <v>0</v>
       </c>
       <c r="G95" s="41"/>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\90.SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\出水田直哉\git\serp\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B73F649-E795-453E-93A4-6B629855FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7B195-3DA5-493C-AC75-C3C9F1BA3DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>2024年09月　仕掛 原価一覧</t>
     <rPh sb="4" eb="5">
@@ -383,6 +383,13 @@
       <t>ダイチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料費</t>
+    <rPh sb="0" eb="3">
+      <t>ザイリョウヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1258,14 +1265,7 @@
     <cellStyle name="標準 3" xfId="13" xr:uid="{FBD4C373-5A16-44A0-B871-A8DA528BBC87}"/>
     <cellStyle name="標準 4" xfId="15" xr:uid="{90132796-2803-48DE-B0F8-E8FBB846CDFD}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1658,7 +1658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2181,16 +2183,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
@@ -2386,173 +2388,187 @@
       <c r="C13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="F13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="H13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="I13" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:13">
       <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="3:9">
       <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="3:9">
       <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="3:8">
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="3:8">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="3:8">
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="3:8">
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="3:9">
       <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="3:8">
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="3:9">
       <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="3:8">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="3:9">
       <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="3:8">
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="3:9">
       <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="3:8">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="3:9">
       <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="3:8">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="3:9">
       <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="3:8">
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="3:9">
       <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="3:8">
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="3:9">
       <c r="C30" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
-      <c r="G30" s="46">
-        <f>SUM(G14:G29)</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="45"/>
       <c r="H30" s="46">
         <f>SUM(H14:H29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="3:8">
+      <c r="I30" s="46">
+        <f>SUM(I14:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2561,127 +2577,116 @@
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1">
+    <row r="33" spans="1:15" s="3" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="F33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="G33" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="H33" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="C37" s="12"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="C41" s="12"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" s="3" customFormat="1">
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" s="3" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="49">
-        <f>SUM(G34:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="49">
+        <f>SUM(H34:H41)</f>
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" s="3" customFormat="1">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="44" spans="1:15" s="3" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
@@ -2698,19 +2703,22 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1">
+    <row r="45" spans="1:15" s="3" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="42" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="F45" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="G45" s="43" t="s">
         <v>18</v>
       </c>
       <c r="H45" s="43" t="s">
@@ -2723,31 +2731,34 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="C46" s="12"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="64">
         <f>SUM(D46:G46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="C47" s="12"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="64">
         <f t="shared" ref="H47:H50" si="7">SUM(D47:G47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="C48" s="12"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="64">
         <f>SUM(D48:G48)</f>
         <v>0</v>
@@ -2758,6 +2769,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2768,6 +2780,7 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2778,6 +2791,7 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="64">
         <f>SUM(D51:G51)</f>
         <v>0</v>
@@ -2788,6 +2802,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="64">
         <f t="shared" ref="H52:H54" si="8">SUM(D52:G52)</f>
         <v>0</v>
@@ -2798,6 +2813,7 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -2808,6 +2824,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -2818,6 +2835,7 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="50">
         <f>SUM(D55:G55)</f>
         <v>0</v>
@@ -2843,21 +2861,6 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" s="3" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="47"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1">
       <c r="A58" s="2"/>
@@ -2884,15 +2887,17 @@
         <v>15</v>
       </c>
       <c r="D59" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="F59" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="G59" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="2"/>
       <c r="H59" s="43" t="s">
         <v>25</v>
       </c>
@@ -2912,7 +2917,7 @@
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="51"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="50">
         <f t="shared" ref="H60:H82" si="9">SUM(D60:G60)</f>
         <v>0</v>
@@ -2933,7 +2938,7 @@
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="40"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -2954,7 +2959,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="64">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -2975,7 +2980,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -2996,7 +3001,7 @@
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="2"/>
+      <c r="G64" s="22"/>
       <c r="H64" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3017,7 +3022,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="51"/>
+      <c r="G65" s="22"/>
       <c r="H65" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3038,7 +3043,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="51"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3059,7 +3064,7 @@
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="51"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3080,7 +3085,7 @@
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
-      <c r="G68" s="51"/>
+      <c r="G68" s="22"/>
       <c r="H68" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3101,7 +3106,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="51"/>
+      <c r="G69" s="22"/>
       <c r="H69" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3122,7 +3127,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="51"/>
+      <c r="G70" s="22"/>
       <c r="H70" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3143,7 +3148,7 @@
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="51"/>
+      <c r="G71" s="22"/>
       <c r="H71" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3164,7 +3169,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="51"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3185,7 +3190,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="51"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3206,7 +3211,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="51"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3227,7 +3232,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="51"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3248,7 +3253,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="51"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3269,7 +3274,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="51"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3290,7 +3295,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="51"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3311,7 +3316,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="51"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3332,7 +3337,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="51"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3353,7 +3358,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="51"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3374,7 +3379,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="51"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3393,20 +3398,23 @@
         <v>21</v>
       </c>
       <c r="D83" s="46">
-        <f>SUM(D60:D80)</f>
+        <f>SUM(D60:D82)</f>
         <v>0</v>
       </c>
       <c r="E83" s="46">
-        <f>SUM(E60:E80)</f>
+        <f>SUM(E60:E82)</f>
         <v>0</v>
       </c>
       <c r="F83" s="46">
-        <f>SUM(F60:F80)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="51"/>
+        <f>SUM(F60:F82)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="46">
+        <f>SUM(G60:G82)</f>
+        <v>0</v>
+      </c>
       <c r="H83" s="46">
-        <f>SUM(H60:H80)</f>
+        <f>SUM(H60:H82)</f>
         <v>0</v>
       </c>
       <c r="I83" s="2"/>
@@ -3612,9 +3620,7 @@
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
-      <c r="F95" s="46">
-        <v>0</v>
-      </c>
+      <c r="F95" s="46"/>
       <c r="G95" s="41"/>
       <c r="H95" s="2"/>
     </row>
@@ -4261,67 +4267,62 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$F5="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$F7="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G4 I3:I4">
-    <cfRule type="expression" dxfId="10" priority="13">
+  <conditionalFormatting sqref="F3:G4 I3:I4 M12 N13:N30 M32">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G4">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$F3="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G5">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$E3="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H7">
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>$E7="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>$F6="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="notEqual">
       <formula>"""--"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M32">
-    <cfRule type="expression" dxfId="2" priority="27">
+  <conditionalFormatting sqref="M46:M55">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M41">
-    <cfRule type="expression" dxfId="1" priority="29">
-      <formula>#REF!="振分なし"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M46:M55">
-    <cfRule type="expression" dxfId="0" priority="12">
+  <conditionalFormatting sqref="N34:N41">
+    <cfRule type="expression" dxfId="0" priority="29">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\出水田直哉\git\serp\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7B195-3DA5-493C-AC75-C3C9F1BA3DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B570996-B92A-4F52-B759-5AACAC5743A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
@@ -1656,11 +1656,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1766,231 +1764,21 @@
       <c r="M4" s="96"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="96"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="96"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="96"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="96"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="96"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="96"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="96"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="96"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="96"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="96"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="96"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="96"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="96"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="96"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="97" t="s">
+      <c r="A5" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}"/>
@@ -2001,9 +1789,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2086,90 +1874,18 @@
       <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="90"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="90"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="90"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="104" t="s">
+      <c r="A5" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J2" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}"/>
@@ -2185,7 +1901,7 @@
   </sheetPr>
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B570996-B92A-4F52-B759-5AACAC5743A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1B3FB-2DEE-471E-AE45-672BD7FDF299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>2024年09月　仕掛 原価一覧</t>
     <rPh sb="4" eb="5">
@@ -949,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1027,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1676,109 +1673,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="86" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="96"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="96"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="98"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="97"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}"/>
@@ -1791,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1808,84 +1805,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J2" xr:uid="{B39F9989-0D80-445F-88DD-CF965BD0E470}"/>
@@ -1899,9 +1896,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -1960,29 +1957,29 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="27" customHeight="1" thickTop="1">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82">
         <f t="shared" ref="J3" si="0">F3+G3+H3+I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="83">
         <f t="shared" ref="K3" si="1">IF(B3="○",IF(E3="",0,J3),D3+J3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="85" t="str">
+      <c r="L3" s="84" t="str">
         <f t="shared" ref="L3" si="2">IF(B3="○",D3+J3-K3,"--")</f>
         <v>--</v>
       </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="2:13" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="2:13" s="26" customFormat="1" ht="27" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="21"/>
       <c r="D4" s="13"/>
@@ -1990,7 +1987,7 @@
       <c r="F4" s="25"/>
       <c r="G4" s="23"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="17">
         <f t="shared" ref="J4:J5" si="3">F4+G4+H4+I4</f>
         <v>0</v>
@@ -2006,94 +2003,94 @@
       <c r="M4" s="24"/>
     </row>
     <row r="5" spans="2:13" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72">
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="67">
         <f>IF(B5="○",IF(E5="",0,J5),D5+J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="73" t="str">
+      <c r="L5" s="72" t="str">
         <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="M5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" thickBot="1">
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" thickBot="1">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f t="shared" ref="D7:L7" si="6">SUM(D3:D5)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.5" thickBot="1">
-      <c r="G8" s="40"/>
-      <c r="H8" s="105">
+      <c r="G8" s="39"/>
+      <c r="H8" s="104">
         <f>SUM(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="G9" s="40"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" customHeight="1">
-      <c r="G10" s="41"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="12" spans="2:13">
       <c r="C12" s="1" t="s">
@@ -2101,25 +2098,25 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2142,276 +2139,468 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46">
-        <f>SUM(H14:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="46">
-        <f>SUM(I14:I29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="1" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45">
+        <f>SUM(H14:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <f>SUM(I14:I15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="48">
+        <f>SUM(H20:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="24" spans="1:15" s="3" customFormat="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="46"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="12"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="12"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="49">
+        <f t="shared" ref="H32:H35" si="7">SUM(D32:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" s="3" customFormat="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>23</v>
-      </c>
+      <c r="B33" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="H34" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:15" s="3" customFormat="1">
+      <c r="H35" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="45">
+        <f>SUM(D32:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="45">
+        <f>SUM(E32:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="45">
+        <f>SUM(F32:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="45">
+        <f>SUM(G32:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="45">
+        <f>SUM(H32:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60">
+        <v>0</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60">
+        <v>0</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="49">
-        <f>SUM(H34:H41)</f>
-        <v>0</v>
-      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="44" spans="1:15" s="3" customFormat="1">
+    </row>
+    <row r="43" spans="1:14" s="50" customFormat="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="47"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60">
+        <v>0</v>
+      </c>
+      <c r="H44" s="50"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2419,27 +2608,16 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1">
+    <row r="45" spans="1:14" s="3" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>25</v>
-      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2447,148 +2625,99 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="C46" s="12"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="64">
-        <f>SUM(D46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="C47" s="12"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="64">
-        <f t="shared" ref="H47:H50" si="7">SUM(D47:G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="C48" s="12"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="64">
-        <f>SUM(D48:G48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="C49" s="12"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:14" s="50" customFormat="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="60">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1">
+      <c r="C48" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.25" customHeight="1">
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="C50" s="12"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="C51" s="12"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="64">
-        <f>SUM(D51:G51)</f>
-        <v>0</v>
-      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="C52" s="12"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="64">
-        <f t="shared" ref="H52:H54" si="8">SUM(D52:G52)</f>
-        <v>0</v>
-      </c>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="C53" s="12"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="C54" s="12"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="C55" s="12"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="50">
-        <f>SUM(D55:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="3" customFormat="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="49">
-        <f>SUM(H46:H55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" s="3" customFormat="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2599,24 +2728,12 @@
     <row r="59" spans="1:14" s="3" customFormat="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>25</v>
-      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -2626,18 +2743,13 @@
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="50">
-        <f t="shared" ref="H60:H82" si="9">SUM(D60:G60)</f>
-        <v>0</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -2647,18 +2759,13 @@
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2668,18 +2775,13 @@
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -2689,18 +2791,13 @@
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -2710,18 +2807,13 @@
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2731,18 +2823,13 @@
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2752,18 +2839,13 @@
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -2773,18 +2855,13 @@
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -2794,18 +2871,13 @@
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -2815,18 +2887,13 @@
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -2836,18 +2903,12 @@
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -2857,18 +2918,13 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -2878,18 +2934,13 @@
     </row>
     <row r="72" spans="1:14" s="3" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -2899,18 +2950,13 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -2920,18 +2966,13 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -2941,18 +2982,13 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -2962,18 +2998,13 @@
     </row>
     <row r="76" spans="1:14" s="3" customFormat="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -2983,18 +3014,13 @@
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="50"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3004,18 +3030,13 @@
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="50"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -3025,18 +3046,13 @@
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3046,18 +3062,13 @@
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="50"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3065,108 +3076,47 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" s="3" customFormat="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+    <row r="81" spans="1:14">
+      <c r="G81" s="46"/>
+      <c r="L81" s="40"/>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="46">
-        <f>SUM(D60:D82)</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="46">
-        <f>SUM(E60:E82)</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="46">
-        <f>SUM(F60:F82)</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="46">
-        <f>SUM(G60:G82)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="46">
-        <f>SUM(H60:H82)</f>
-        <v>0</v>
-      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="40"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" s="3" customFormat="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" s="3" customFormat="1">
+    <row r="85" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -3174,22 +3124,14 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="86" spans="1:14" s="3" customFormat="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -3200,13 +3142,11 @@
     <row r="87" spans="1:14" s="3" customFormat="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="61">
-        <v>0</v>
-      </c>
-      <c r="H87" s="51"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -3217,13 +3157,11 @@
     <row r="88" spans="1:14" s="3" customFormat="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="61">
-        <v>0</v>
-      </c>
-      <c r="H88" s="51"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3234,13 +3172,11 @@
     <row r="89" spans="1:14" s="3" customFormat="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="61">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -3248,15 +3184,14 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" s="51" customFormat="1">
+    <row r="90" spans="1:14" s="3" customFormat="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="61">
-        <v>0</v>
-      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -3267,13 +3202,11 @@
     <row r="91" spans="1:14" s="3" customFormat="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="61">
-        <v>0</v>
-      </c>
-      <c r="H91" s="51"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -3284,13 +3217,11 @@
     <row r="92" spans="1:14" s="3" customFormat="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="61">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -3298,15 +3229,14 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" s="51" customFormat="1">
+    <row r="93" spans="1:14" s="3" customFormat="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="61">
-        <v>0</v>
-      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -3317,12 +3247,11 @@
     <row r="94" spans="1:14" s="3" customFormat="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="61">
-        <v>0</v>
-      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -3330,652 +3259,50 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" ht="13.5" customHeight="1">
-      <c r="C95" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:14" ht="14.25" customHeight="1">
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="G98" s="41"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="G101" s="41"/>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:14" s="3" customFormat="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-    </row>
-    <row r="105" spans="1:14" s="3" customFormat="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="106" spans="1:14" s="3" customFormat="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-    </row>
-    <row r="107" spans="1:14" s="3" customFormat="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-    </row>
-    <row r="108" spans="1:14" s="3" customFormat="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-    </row>
-    <row r="109" spans="1:14" s="3" customFormat="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="63"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-    </row>
-    <row r="110" spans="1:14" s="3" customFormat="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="63"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-    </row>
-    <row r="111" spans="1:14" s="3" customFormat="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-    </row>
-    <row r="112" spans="1:14" s="3" customFormat="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="63"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-    </row>
-    <row r="113" spans="1:14" s="3" customFormat="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-    </row>
-    <row r="114" spans="1:14" s="3" customFormat="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-    </row>
-    <row r="115" spans="1:14" s="3" customFormat="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-    </row>
-    <row r="116" spans="1:14" s="3" customFormat="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-    </row>
-    <row r="117" spans="1:14" s="3" customFormat="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-    </row>
-    <row r="118" spans="1:14" s="3" customFormat="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-    </row>
-    <row r="119" spans="1:14" s="3" customFormat="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-    </row>
-    <row r="120" spans="1:14" s="3" customFormat="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-    </row>
-    <row r="121" spans="1:14" s="3" customFormat="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-    </row>
-    <row r="122" spans="1:14" s="3" customFormat="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-    </row>
-    <row r="123" spans="1:14" s="3" customFormat="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-    </row>
-    <row r="124" spans="1:14" s="3" customFormat="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-    </row>
-    <row r="125" spans="1:14" s="3" customFormat="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="63"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-    </row>
-    <row r="126" spans="1:14" s="3" customFormat="1">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-    </row>
-    <row r="127" spans="1:14" s="3" customFormat="1">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="63"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="G128" s="47"/>
-      <c r="L128" s="41"/>
-    </row>
-    <row r="129" spans="1:14" s="3" customFormat="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-    </row>
-    <row r="130" spans="1:14" s="3" customFormat="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-    </row>
-    <row r="132" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-    </row>
-    <row r="133" spans="1:14" s="3" customFormat="1">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-    </row>
-    <row r="134" spans="1:14" s="3" customFormat="1">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-    </row>
-    <row r="135" spans="1:14" s="3" customFormat="1">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-    </row>
-    <row r="136" spans="1:14" s="3" customFormat="1">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-    </row>
-    <row r="137" spans="1:14" s="3" customFormat="1">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-    </row>
-    <row r="138" spans="1:14" s="3" customFormat="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-    </row>
-    <row r="139" spans="1:14" s="3" customFormat="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-    </row>
-    <row r="140" spans="1:14" s="3" customFormat="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-    </row>
-    <row r="141" spans="1:14" s="3" customFormat="1">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-    </row>
-    <row r="142" spans="1:14" s="3" customFormat="1">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-    </row>
-    <row r="143" spans="1:14" s="3" customFormat="1">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-    </row>
-    <row r="144" spans="1:14" s="3" customFormat="1">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+    <row r="95" spans="1:14" s="3" customFormat="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" s="3" customFormat="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" s="3" customFormat="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3992,7 +3319,7 @@
       <formula>$F7="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G4 I3:I4 M12 N13:N30 M32">
+  <conditionalFormatting sqref="F3:G4 I3:I4 M12 N13:N16 M18">
     <cfRule type="expression" dxfId="9" priority="13">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
@@ -4032,12 +3359,12 @@
       <formula>"""--"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M46:M55">
+  <conditionalFormatting sqref="M26:M27">
     <cfRule type="expression" dxfId="1" priority="12">
       <formula>#REF!="振分なし"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N41">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="expression" dxfId="0" priority="29">
       <formula>#REF!="振分なし"</formula>
     </cfRule>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1B3FB-2DEE-471E-AE45-672BD7FDF299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCBEF79-3D6E-49A5-B650-F1B6E3353998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
@@ -1655,7 +1655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10133D4-A1C1-4E54-95D4-508FD310C8D1}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1664,12 +1666,7 @@
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1797,11 +1794,7 @@
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin.kawahara\Documents\SERP\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\90.SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCBEF79-3D6E-49A5-B650-F1B6E3353998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADD7ED-40D1-4842-B5AE-086209B019F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="完成PJ台帳" sheetId="3" r:id="rId1"/>
@@ -1891,7 +1891,9 @@
   </sheetPr>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J36:J37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -2353,10 +2355,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="49">
-        <f t="shared" ref="H32:H35" si="7">SUM(D32:G32)</f>
-        <v>0</v>
-      </c>
+      <c r="H32" s="49"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2374,10 +2373,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H33" s="49"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2395,10 +2391,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H34" s="49"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2416,10 +2409,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H35" s="49"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\90.SERP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADD7ED-40D1-4842-B5AE-086209B019F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A82AB3-9162-45AE-A5D3-153CB739659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{0528F8C5-61C5-4BC5-AE8D-B5F88F964B2D}"/>
   </bookViews>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1891,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J36:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2141,14 +2141,8 @@
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="45">
-        <f>SUM(H14:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <f>SUM(I14:I15)</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="18" spans="1:15">
       <c r="C18" s="1" t="s">
@@ -2209,10 +2203,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="48">
-        <f>SUM(H20:H21)</f>
-        <v>0</v>
-      </c>
+      <c r="H22" s="48"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2423,26 +2414,11 @@
       <c r="C36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="45">
-        <f>SUM(D32:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
-        <f>SUM(E32:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="45">
-        <f>SUM(F32:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="45">
-        <f>SUM(G32:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="45">
-        <f>SUM(H32:H35)</f>
-        <v>0</v>
-      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
